--- a/Fixtures.xlsx
+++ b/Fixtures.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dave\Python\Python Scripts\Halo-Git\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{778DB0B7-BAFF-44EE-84CD-EDC3ADBA1E56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="17">
   <si>
     <t>Fixtures</t>
   </si>
@@ -34,47 +40,44 @@
     <t>The first map tonight is: Torque</t>
   </si>
   <si>
-    <t>The second map for tonight : The Rig</t>
-  </si>
-  <si>
-    <t>The third map for tonight is: Eden</t>
-  </si>
-  <si>
-    <t>The fourth map tonight is: Overgrowth</t>
-  </si>
-  <si>
-    <t>Free-for-all: Pegasus</t>
+    <t>The second map for tonight : Stasis</t>
+  </si>
+  <si>
+    <t>The third map for tonight is: Molten</t>
+  </si>
+  <si>
+    <t>The fourth map tonight is: Regret</t>
+  </si>
+  <si>
+    <t>Free-for-all: Solasium</t>
+  </si>
+  <si>
+    <t>budbudhardy</t>
+  </si>
+  <si>
+    <t>sashwank</t>
+  </si>
+  <si>
+    <t>RustlingSpore</t>
+  </si>
+  <si>
+    <t>ManChivster</t>
+  </si>
+  <si>
+    <t>Fro5tShark</t>
   </si>
   <si>
     <t>Dead1n5ide</t>
   </si>
   <si>
-    <t>Fro5tShark</t>
-  </si>
-  <si>
     <t>flaresman</t>
-  </si>
-  <si>
-    <t>RustlingSpore</t>
-  </si>
-  <si>
-    <t>ManChivster</t>
-  </si>
-  <si>
-    <t>sashwank</t>
-  </si>
-  <si>
-    <t>UBERmatto</t>
-  </si>
-  <si>
-    <t>budbudhardy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,6 +142,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -185,7 +196,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -217,9 +228,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -251,6 +280,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -426,18 +473,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
     <col min="3" max="7" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -445,7 +494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
@@ -458,232 +507,208 @@
       <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C3" s="3">
-        <v>1.15</v>
+        <v>2.11</v>
       </c>
       <c r="D3" s="3">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="E3" s="3">
-        <v>1.06</v>
-      </c>
-      <c r="F3" s="3">
         <v>0.59</v>
       </c>
       <c r="G3" s="3">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>16</v>
       </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C5" s="3">
         <v>1.4</v>
       </c>
       <c r="D5" s="3">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="E5" s="3">
-        <v>0.49</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="F5" s="3">
-        <v>2.11</v>
+        <v>1.06</v>
       </c>
       <c r="G5" s="3">
-        <v>1.26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C7" s="3">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="D7" s="3">
-        <v>2.11</v>
+        <v>1.06</v>
       </c>
       <c r="E7" s="3">
-        <v>0.59</v>
-      </c>
-      <c r="F7" s="3">
-        <v>1.07</v>
+        <v>1.4</v>
       </c>
       <c r="G7" s="3">
-        <v>1.23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C9" s="3">
+        <v>0.59</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1.07</v>
+      </c>
+      <c r="E9" s="3">
         <v>1.03</v>
       </c>
-      <c r="D9" s="3">
-        <v>1.06</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1.4</v>
-      </c>
       <c r="F9" s="3">
-        <v>0.49</v>
+        <v>2.11</v>
       </c>
       <c r="G9" s="3">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C11" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="D11" s="3">
         <v>1.03</v>
       </c>
-      <c r="D11" s="3">
-        <v>1.15</v>
-      </c>
       <c r="E11" s="3">
-        <v>0.59</v>
-      </c>
-      <c r="F11" s="3">
-        <v>2.11</v>
+        <v>1.07</v>
       </c>
       <c r="G11" s="3">
-        <v>1.22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C13" s="3">
-        <v>1.07</v>
+        <v>0.59</v>
       </c>
       <c r="D13" s="3">
-        <v>1.4</v>
+        <v>1.06</v>
       </c>
       <c r="E13" s="3">
-        <v>0.49</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="F13" s="3">
-        <v>1.06</v>
+        <v>2.11</v>
       </c>
       <c r="G13" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" t="s">
         <v>11</v>
       </c>
-      <c r="D14" t="s">
-        <v>12</v>
-      </c>
       <c r="E14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C15" s="3">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1.03</v>
+      </c>
+      <c r="E15" s="3">
         <v>1.07</v>
       </c>
-      <c r="D15" s="3">
-        <v>1.06</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0.59</v>
-      </c>
-      <c r="F15" s="3">
-        <v>1.15</v>
-      </c>
       <c r="G15" s="3">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
         <v>3</v>
       </c>
@@ -691,33 +716,33 @@
         <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C17" s="3">
-        <v>0.49</v>
+        <v>1.06</v>
       </c>
       <c r="D17" s="3">
         <v>1.4</v>
       </c>
       <c r="E17" s="3">
-        <v>1.03</v>
+        <v>2.11</v>
       </c>
       <c r="F17" s="3">
-        <v>2.11</v>
+        <v>0.59</v>
       </c>
       <c r="G17" s="3">
-        <v>1.26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>4</v>
       </c>
@@ -725,22 +750,22 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>9</v>
       </c>

--- a/Fixtures.xlsx
+++ b/Fixtures.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dave\Python\Python Scripts\Halo-Git\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{778DB0B7-BAFF-44EE-84CD-EDC3ADBA1E56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="18">
   <si>
     <t>Fixtures</t>
   </si>
@@ -37,47 +31,50 @@
     <t>Maps</t>
   </si>
   <si>
-    <t>The first map tonight is: Torque</t>
-  </si>
-  <si>
-    <t>The second map for tonight : Stasis</t>
-  </si>
-  <si>
-    <t>The third map for tonight is: Molten</t>
-  </si>
-  <si>
-    <t>The fourth map tonight is: Regret</t>
-  </si>
-  <si>
-    <t>Free-for-all: Solasium</t>
-  </si>
-  <si>
-    <t>budbudhardy</t>
-  </si>
-  <si>
-    <t>sashwank</t>
+    <t>The first map tonight is: Orion</t>
+  </si>
+  <si>
+    <t>The second map for tonight : Empire</t>
+  </si>
+  <si>
+    <t>The third map for tonight is: Pegasus</t>
+  </si>
+  <si>
+    <t>The fourth map tonight is: Riptide</t>
+  </si>
+  <si>
+    <t>Free-for-all: Jade Harbour</t>
+  </si>
+  <si>
+    <t>Dead1n5ide</t>
+  </si>
+  <si>
+    <t>Fro5tShark</t>
+  </si>
+  <si>
+    <t>UBERmatto</t>
+  </si>
+  <si>
+    <t>BudbudHardy</t>
   </si>
   <si>
     <t>RustlingSpore</t>
   </si>
   <si>
+    <t>Flaresman</t>
+  </si>
+  <si>
+    <t>Sashwank</t>
+  </si>
+  <si>
     <t>ManChivster</t>
-  </si>
-  <si>
-    <t>Fro5tShark</t>
-  </si>
-  <si>
-    <t>Dead1n5ide</t>
-  </si>
-  <si>
-    <t>flaresman</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,14 +139,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -196,7 +185,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -228,27 +217,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -280,24 +251,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -473,20 +426,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
     <col min="3" max="7" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -494,7 +445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
@@ -507,242 +458,266 @@
       <c r="E2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="C3" s="3">
-        <v>2.11</v>
+        <v>1.265</v>
       </c>
       <c r="D3" s="3">
-        <v>1.03</v>
+        <v>1.049</v>
       </c>
       <c r="E3" s="3">
-        <v>0.59</v>
+        <v>0.594</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1.818</v>
       </c>
       <c r="G3" s="3">
-        <v>1.24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="C5" s="3">
-        <v>1.4</v>
+        <v>0.717</v>
       </c>
       <c r="D5" s="3">
-        <v>1.07</v>
+        <v>1.201</v>
       </c>
       <c r="E5" s="3">
-        <v>1.1499999999999999</v>
+        <v>1.131</v>
       </c>
       <c r="F5" s="3">
-        <v>1.06</v>
+        <v>1.293</v>
       </c>
       <c r="G5" s="3">
-        <v>1.17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="C7" s="3">
-        <v>1.1499999999999999</v>
+        <v>1.293</v>
       </c>
       <c r="D7" s="3">
-        <v>1.06</v>
+        <v>0.717</v>
       </c>
       <c r="E7" s="3">
-        <v>1.4</v>
+        <v>1.818</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1.131</v>
       </c>
       <c r="G7" s="3">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:7">
       <c r="C9" s="3">
-        <v>0.59</v>
+        <v>1.049</v>
       </c>
       <c r="D9" s="3">
-        <v>1.07</v>
+        <v>1.201</v>
       </c>
       <c r="E9" s="3">
+        <v>1.265</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.594</v>
+      </c>
+      <c r="G9" s="3">
         <v>1.03</v>
       </c>
-      <c r="F9" s="3">
-        <v>2.11</v>
-      </c>
-      <c r="G9" s="3">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:7">
       <c r="B10" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="C11" s="3">
-        <v>1.4</v>
+        <v>0.594</v>
       </c>
       <c r="D11" s="3">
-        <v>1.03</v>
+        <v>1.265</v>
       </c>
       <c r="E11" s="3">
+        <v>1.293</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1.131</v>
+      </c>
+      <c r="G11" s="3">
         <v>1.07</v>
       </c>
-      <c r="G11" s="3">
-        <v>1.17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:7">
       <c r="B12" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
         <v>15</v>
       </c>
-      <c r="F12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:7">
       <c r="C13" s="3">
-        <v>0.59</v>
+        <v>0.717</v>
       </c>
       <c r="D13" s="3">
-        <v>1.06</v>
+        <v>1.049</v>
       </c>
       <c r="E13" s="3">
-        <v>1.1499999999999999</v>
+        <v>1.818</v>
       </c>
       <c r="F13" s="3">
-        <v>2.11</v>
+        <v>1.201</v>
       </c>
       <c r="G13" s="3">
-        <v>1.23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="B14" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D14" t="s">
         <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="C15" s="3">
-        <v>1.1499999999999999</v>
+        <v>0.594</v>
       </c>
       <c r="D15" s="3">
-        <v>1.03</v>
+        <v>1.049</v>
       </c>
       <c r="E15" s="3">
-        <v>1.07</v>
+        <v>1.818</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1.293</v>
       </c>
       <c r="G15" s="3">
-        <v>1.08</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="B16" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" t="s">
         <v>16</v>
       </c>
-      <c r="D16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:7">
       <c r="C17" s="3">
-        <v>1.06</v>
+        <v>1.265</v>
       </c>
       <c r="D17" s="3">
-        <v>1.4</v>
+        <v>0.717</v>
       </c>
       <c r="E17" s="3">
-        <v>2.11</v>
+        <v>1.201</v>
       </c>
       <c r="F17" s="3">
-        <v>0.59</v>
+        <v>1.131</v>
       </c>
       <c r="G17" s="3">
-        <v>1.29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
         <v>4</v>
       </c>
@@ -750,22 +725,22 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="B20" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="B21" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="B22" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="B23" t="s">
         <v>9</v>
       </c>
